--- a/Reports/Defect Report On OpenCart Ecommerce Website.xlsx
+++ b/Reports/Defect Report On OpenCart Ecommerce Website.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f8df42fb1d994e7/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{C7F0AA17-30ED-4AB0-9FC0-471A05343913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7FF7A54-7DA3-46A3-A866-409FEA2B7AFA}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{C7F0AA17-30ED-4AB0-9FC0-471A05343913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC1C6544-9768-4F89-8F46-1FA44CC06DFF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{6703EAF1-097C-4C7D-AD54-2FB592AB9A71}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <r>
       <t>Ø</t>
@@ -265,9 +265,24 @@
     <t>TC_Cart_006</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. Search any product Add Product to cart  .
-2. Click on checkout </t>
+    <t>Vaishali Mam(Manager name)</t>
+  </si>
+  <si>
+    <t>Yoga(Developer name)</t>
+  </si>
+  <si>
+    <t>Def_opencart_002</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>TC_register_010</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Enter Numbers for First Name and Last Name .
+2. Click on continue button </t>
     </r>
     <r>
       <rPr>
@@ -281,27 +296,33 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">High </t>
-  </si>
-  <si>
-    <t>Vaishali Mam(Manager name)</t>
-  </si>
-  <si>
-    <t>Yoga(Developer name)</t>
-  </si>
-  <si>
-    <t>Def_opencart_002</t>
-  </si>
-  <si>
-    <t>TC_010</t>
-  </si>
-  <si>
-    <t>TC_register_010</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Enter Numbers for First Name and Last Name .
-2. Click on continue button </t>
+    <t xml:space="preserve">Expected result=First Name and Last Name should not accept numbers. Actual Result = It is accepting the numbers in place First Name and Last Name </t>
+  </si>
+  <si>
+    <t>User Registration Module</t>
+  </si>
+  <si>
+    <t>Cart Module</t>
+  </si>
+  <si>
+    <t>Def_opencart_003</t>
+  </si>
+  <si>
+    <t>Login Module</t>
+  </si>
+  <si>
+    <t>Expected result=When Clicking on Forgot Password user should recive email to change password. Actual Result = No mail received.</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>TC_Login_006</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Click on Forgot Password .
+2. Enter Email Click oncontinue button</t>
     </r>
     <r>
       <rPr>
@@ -315,27 +336,12 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Expected result=First Name and Last Name should not accept numbers. Actual Result = It is accepting the numbers in place First Name and Last Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected result=user should be able to checkout page. Actual Result = all items are unavailable </t>
-  </si>
-  <si>
-    <t>User Registration Module</t>
-  </si>
-  <si>
-    <t>Cart Module</t>
-  </si>
-  <si>
-    <t>Def_opencart_003</t>
-  </si>
-  <si>
-    <t>Login Module</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Click on Forgot Password .
-2. Enter Email Click continue </t>
+    <t xml:space="preserve">Expected result=display out of stock tag on product. Actual Result = after clicking on cart only we can see that items are out of stock </t>
+  </si>
+  <si>
+    <r>
+      <t>1. Search any product and Click on  Add Cart button.
+2. Click on checkout</t>
     </r>
     <r>
       <rPr>
@@ -347,15 +353,6 @@
       </rPr>
       <t>.</t>
     </r>
-  </si>
-  <si>
-    <t>Expected result=When Clicking on Forgot Password user should recive email to change password. Actual Result = No mail received.</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>TC_Login_006</t>
   </si>
 </sst>
 </file>
@@ -775,10 +772,10 @@
         <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="94">
@@ -786,13 +783,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23.5">
@@ -803,7 +800,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>21</v>
@@ -817,10 +814,10 @@
         <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.5">
@@ -828,13 +825,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="70.5">
@@ -842,10 +839,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>37</v>
@@ -856,13 +853,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="23.5">
@@ -870,13 +867,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="23.5">
@@ -945,13 +942,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.5">
@@ -964,13 +961,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Defect Report On OpenCart Ecommerce Website.xlsx
+++ b/Reports/Defect Report On OpenCart Ecommerce Website.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f8df42fb1d994e7/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{C7F0AA17-30ED-4AB0-9FC0-471A05343913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC1C6544-9768-4F89-8F46-1FA44CC06DFF}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{C7F0AA17-30ED-4AB0-9FC0-471A05343913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13607E03-6A25-4833-B982-5E1F283F41A3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{6703EAF1-097C-4C7D-AD54-2FB592AB9A71}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <r>
       <t>Ø</t>
@@ -260,9 +260,6 @@
   </si>
   <si>
     <t>TC_006</t>
-  </si>
-  <si>
-    <t>TC_Cart_006</t>
   </si>
   <si>
     <t>Vaishali Mam(Manager name)</t>
@@ -308,6 +305,9 @@
     <t>Def_opencart_003</t>
   </si>
   <si>
+    <t>TC_011</t>
+  </si>
+  <si>
     <t>Login Module</t>
   </si>
   <si>
@@ -353,6 +353,9 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>TC_Cart_011</t>
   </si>
 </sst>
 </file>
@@ -753,7 +756,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -772,10 +775,10 @@
         <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="94">
@@ -786,7 +789,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>34</v>
@@ -797,10 +800,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>21</v>
@@ -811,10 +814,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>36</v>
@@ -825,10 +828,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
@@ -842,7 +845,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>37</v>
@@ -942,13 +945,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.5">
@@ -961,13 +964,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
